--- a/finger _mapping.xlsx
+++ b/finger _mapping.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF801F9-7115-4407-B2B5-470194A98FAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E5711F-539B-47B3-A2EB-09FA87CB40E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" activeTab="1" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="psoc16" sheetId="1" r:id="rId1"/>
+    <sheet name="psoc17" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>cyl2</t>
   </si>
@@ -43,15 +44,55 @@
   <si>
     <t>cyl3</t>
   </si>
+  <si>
+    <t>Cyl0 Jointup</t>
+  </si>
+  <si>
+    <t>Cyl2 Joint up</t>
+  </si>
+  <si>
+    <t>Cyl3 Joint up</t>
+  </si>
+  <si>
+    <t>Cyl3 joint down</t>
+  </si>
+  <si>
+    <t>max cyl3 psoc 0 joint angle</t>
+  </si>
+  <si>
+    <t>min cyl3 psoc 0 joint angle</t>
+  </si>
+  <si>
+    <t>y = -705.92x + 2182.4</t>
+  </si>
+  <si>
+    <t>y = -790.62x + 2852.7</t>
+  </si>
+  <si>
+    <t>(base_joint/1.29)*(-705.92*upper + 2182.4) + (1-base_joint/1.29)*(-790.62*upper + 2852.7)</t>
+  </si>
+  <si>
+    <t>y = -703.44x + 2065.4</t>
+  </si>
+  <si>
+    <t>y = -860.17x + 2137.9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +292,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>psoc16!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -293,7 +337,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>psoc16!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -690,7 +734,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$13</c:f>
+              <c:f>psoc16!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -732,7 +776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$13</c:f>
+              <c:f>psoc16!$K$3:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1031,7 +1075,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>psoc16!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1128,7 +1172,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>psoc16!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1173,7 +1217,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:f>psoc16!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1465,7 +1509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>psoc16!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,7 +1606,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:f>psoc16!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1610,7 +1654,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$14</c:f>
+              <c:f>psoc16!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1795,6 +1839,1765 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="550355768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Joint up</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10265288713910761"/>
+                  <c:y val="4.1146835812190141E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7266462599716474E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2583087292951608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39269908169872414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54105206811824214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67718774977379981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79237948040542561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0088003076527223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2164944886400477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.254891732183923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.340412865531645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4381513036433275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6F9-4FD5-80E2-3386C2C82DFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418569464"/>
+        <c:axId val="418567496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418569464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418567496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418567496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418569464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl3 joint down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$J$17:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13788101090755203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20943951023931956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24783675378319478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42760566673861072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50614548307835561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58992128717408332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86568330898918744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0105456369047168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1047934165124105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2164944886400477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3683381335635545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4032447186034411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$K$17:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12C4-46FC-99AE-28F82D61EF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411750752"/>
+        <c:axId val="293710424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411750752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293710424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293710424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411750752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>cyl2 joint up</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5049157835756164E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23038346126325149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49043751981040662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47298422729046335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70685834705770345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84997534572123856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1833332328521553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.377064779823526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE4B-4C73-B6C3-E40365A49566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421066136"/>
+        <c:axId val="421067120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421066136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421067120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="421067120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421066136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl0 Joint up</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13653893263342082"/>
+                  <c:y val="1.0808180227471566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.7266462599716477E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.410520681182461E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15533430342749494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32637657012293941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27576202181510429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49392817831439545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62133721370998174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67369709126981159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89011791851710809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97912971036881924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0960667702524391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.232202451907997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A16-4976-80C5-BF6D3F1ABF04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="414749560"/>
+        <c:axId val="414752512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="414749560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414752512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414752512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414749560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2010,6 +3813,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3559,6 +5522,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4150,16 +8177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4203,6 +8230,155 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E680F6-313F-4ABC-B8AF-83A25EA34C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7B2F07-CDAE-4702-987E-E14BC8C0A631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE124CF-84CB-47EC-AFD7-42631BEB1190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD163867-7433-443D-89BF-8EA7CF31EB3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13568BFE-3E24-4251-B94D-77EEC976CC6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4522,8 +8698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE6C97-79D0-4B86-A519-91789606F757}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,4 +9039,579 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623E588-1CC0-46A8-AA32-60210AEFA578}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>1.2915436464758039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>359.5</v>
+      </c>
+      <c r="B2">
+        <f>RADIANS(360-A2)</f>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="C2">
+        <v>2200</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>RADIANS(E2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2100</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>RADIANS(I2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>356.9</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">RADIANS(360-A3)</f>
+        <v>5.410520681182461E-2</v>
+      </c>
+      <c r="C3">
+        <v>2100</v>
+      </c>
+      <c r="E3">
+        <v>4.3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="1">RADIANS(E3)</f>
+        <v>7.5049157835756164E-2</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="2">RADIANS(I3)</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="K3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>351.1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.15533430342749494</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>13.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.23038346126325149</v>
+      </c>
+      <c r="G4">
+        <v>1900</v>
+      </c>
+      <c r="I4">
+        <v>14.8</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.2583087292951608</v>
+      </c>
+      <c r="K4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>341.3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.32637657012293941</v>
+      </c>
+      <c r="C5">
+        <v>1900</v>
+      </c>
+      <c r="E5">
+        <v>28.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.49043751981040662</v>
+      </c>
+      <c r="G5">
+        <v>1800</v>
+      </c>
+      <c r="I5">
+        <v>22.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="K5">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>344.2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.27576202181510429</v>
+      </c>
+      <c r="C6">
+        <v>1800</v>
+      </c>
+      <c r="E6">
+        <v>27.1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.47298422729046335</v>
+      </c>
+      <c r="G6">
+        <v>1700</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.54105206811824214</v>
+      </c>
+      <c r="K6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>331.7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.49392817831439545</v>
+      </c>
+      <c r="C7">
+        <v>1700</v>
+      </c>
+      <c r="E7">
+        <v>40.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.70685834705770345</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+      <c r="I7">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.67718774977379981</v>
+      </c>
+      <c r="K7">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>324.39999999999998</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.62133721370998174</v>
+      </c>
+      <c r="C8">
+        <v>1600</v>
+      </c>
+      <c r="E8">
+        <v>48.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.84997534572123856</v>
+      </c>
+      <c r="G8">
+        <v>1400</v>
+      </c>
+      <c r="I8">
+        <v>45.4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.79237948040542561</v>
+      </c>
+      <c r="K8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.67369709126981159</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <v>67.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.1833332328521553</v>
+      </c>
+      <c r="G9">
+        <v>1300</v>
+      </c>
+      <c r="I9">
+        <v>57.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.0088003076527223</v>
+      </c>
+      <c r="K9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>309</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.89011791851710809</v>
+      </c>
+      <c r="C10">
+        <v>1400</v>
+      </c>
+      <c r="E10">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.377064779823526</v>
+      </c>
+      <c r="G10">
+        <v>1100</v>
+      </c>
+      <c r="I10">
+        <v>69.7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.2164944886400477</v>
+      </c>
+      <c r="K10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.97912971036881924</v>
+      </c>
+      <c r="C11">
+        <v>1300</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.254891732183923</v>
+      </c>
+      <c r="K11">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>297.2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.0960667702524391</v>
+      </c>
+      <c r="C12">
+        <v>1200</v>
+      </c>
+      <c r="I12">
+        <v>76.8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.340412865531645</v>
+      </c>
+      <c r="K12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>289.39999999999998</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.232202451907997</v>
+      </c>
+      <c r="C13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>82.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1.4381513036433275</v>
+      </c>
+      <c r="K13">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>0.16057029118347813</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>RADIANS(I17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>7.9</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J29" si="3">RADIANS(I18)</f>
+        <v>0.13788101090755203</v>
+      </c>
+      <c r="K18">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.20943951023931956</v>
+      </c>
+      <c r="K19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>14.2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.24783675378319478</v>
+      </c>
+      <c r="K20">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>24.5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.42760566673861072</v>
+      </c>
+      <c r="K21">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.50614548307835561</v>
+      </c>
+      <c r="K22">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.58992128717408332</v>
+      </c>
+      <c r="K23">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>49.6</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.86568330898918744</v>
+      </c>
+      <c r="K24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>57.9</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1.0105456369047168</v>
+      </c>
+      <c r="K25">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>63.3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1.1047934165124105</v>
+      </c>
+      <c r="K26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>69.7</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>1.2164944886400477</v>
+      </c>
+      <c r="K27">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>1.3683381335635545</v>
+      </c>
+      <c r="K28">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>1.4032447186034411</v>
+      </c>
+      <c r="K29">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/finger _mapping.xlsx
+++ b/finger _mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E5711F-539B-47B3-A2EB-09FA87CB40E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476536E1-9D25-4571-9D09-0DC5F3AF16EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" activeTab="1" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>cyl2</t>
   </si>
@@ -77,6 +77,18 @@
   <si>
     <t>y = -860.17x + 2137.9</t>
   </si>
+  <si>
+    <t>Cyl2 Joint down</t>
+  </si>
+  <si>
+    <t>Cyl0 Joint Down</t>
+  </si>
+  <si>
+    <t>y = -752.06x + 2707.1</t>
+  </si>
+  <si>
+    <t>y = -763.63x + 2768.9</t>
+  </si>
 </sst>
 </file>
 
@@ -118,10 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,6 +534,428 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="546523520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl0 Joint down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$B$17:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.13613568165555789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27401669256310957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35953782591083228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4537856055185257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57246799465414033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69464104229374335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83775804095727824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96516707635286447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.174606586592184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4172073526193953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDAA-4B91-A04F-1323EF6325BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338843288"/>
+        <c:axId val="338841648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338843288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338841648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338841648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338843288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3653,7 +4090,469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl2 joint down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$F$16:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.4247779607693802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2775073510670984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37524578917878088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50789081233034994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75049157835756175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96691240560485858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0070549784007281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2095131716320704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4259339988793673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B08-4124-8D6E-24A5153FA8F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424961368"/>
+        <c:axId val="424960384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424961368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424960384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424960384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424961368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3973,6 +4872,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4489,7 +5428,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5005,7 +5944,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5521,7 +6460,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6037,7 +6976,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6553,7 +7492,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7069,7 +8008,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7585,7 +8524,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8396,6 +10367,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B3C62-50E0-4A0E-BA1B-0640E58A0A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915776CB-9070-4EFF-83F3-C0EE9EC5C39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9046,7 +11089,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9433,7 +11476,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>5.4</v>
+      </c>
+      <c r="F16">
+        <f>RADIANS(E16)</f>
+        <v>9.4247779607693802E-2</v>
+      </c>
+      <c r="G16">
+        <v>2700</v>
+      </c>
       <c r="J16" t="s">
         <v>7</v>
       </c>
@@ -9444,7 +11505,27 @@
         <v>0.16057029118347813</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>352.2</v>
+      </c>
+      <c r="B17">
+        <f>RADIANS(360-A17)</f>
+        <v>0.13613568165555789</v>
+      </c>
+      <c r="C17">
+        <v>2700</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F28" si="3">RADIANS(E17)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="G17">
+        <v>2600</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -9456,156 +11537,352 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>344.3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B27" si="4">RADIANS(360-A18)</f>
+        <v>0.27401669256310957</v>
+      </c>
+      <c r="C18">
+        <v>2600</v>
+      </c>
+      <c r="E18">
+        <v>15.9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.2775073510670984</v>
+      </c>
+      <c r="G18">
+        <v>2500</v>
+      </c>
       <c r="I18">
         <v>7.9</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J29" si="3">RADIANS(I18)</f>
+        <f t="shared" ref="J18:J29" si="5">RADIANS(I18)</f>
         <v>0.13788101090755203</v>
       </c>
       <c r="K18">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>339.4</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>0.35953782591083228</v>
+      </c>
+      <c r="C19">
+        <v>2500</v>
+      </c>
+      <c r="E19">
+        <v>21.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.37524578917878088</v>
+      </c>
+      <c r="G19">
+        <v>2400</v>
+      </c>
       <c r="I19">
         <v>12</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20943951023931956</v>
       </c>
       <c r="K19">
         <v>2700</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>334</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>0.4537856055185257</v>
+      </c>
+      <c r="C20">
+        <v>2400</v>
+      </c>
+      <c r="E20">
+        <v>29.1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.50789081233034994</v>
+      </c>
+      <c r="G20">
+        <v>2300</v>
+      </c>
       <c r="I20">
         <v>14.2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.24783675378319478</v>
       </c>
       <c r="K20">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>327.2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>0.57246799465414033</v>
+      </c>
+      <c r="C21">
+        <v>2300</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="G21">
+        <v>2200</v>
+      </c>
       <c r="I21">
         <v>24.5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42760566673861072</v>
       </c>
       <c r="K21">
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>320.2</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>0.69464104229374335</v>
+      </c>
+      <c r="C22">
+        <v>2200</v>
+      </c>
+      <c r="E22">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="G22">
+        <v>2100</v>
+      </c>
       <c r="I22">
         <v>29</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50614548307835561</v>
       </c>
       <c r="K22">
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>312</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>0.83775804095727824</v>
+      </c>
+      <c r="C23">
+        <v>2100</v>
+      </c>
+      <c r="E23">
+        <v>55.4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.96691240560485858</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
       <c r="I23">
         <v>33.799999999999997</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58992128717408332</v>
       </c>
       <c r="K23">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>304.7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>0.96516707635286447</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>57.7</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>1.0070549784007281</v>
+      </c>
+      <c r="G24">
+        <v>1900</v>
+      </c>
       <c r="I24">
         <v>49.6</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86568330898918744</v>
       </c>
       <c r="K24">
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>292.7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>1.174606586592184</v>
+      </c>
+      <c r="C25">
+        <v>1900</v>
+      </c>
+      <c r="E25">
+        <v>69.3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1.2095131716320704</v>
+      </c>
+      <c r="G25">
+        <v>1800</v>
+      </c>
       <c r="I25">
         <v>57.9</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0105456369047168</v>
       </c>
       <c r="K25">
         <v>2100</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>285</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C26">
+        <v>1800</v>
+      </c>
+      <c r="E26">
+        <v>81.7</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1.4259339988793673</v>
+      </c>
+      <c r="G26">
+        <v>1700</v>
+      </c>
       <c r="I26">
         <v>63.3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1047934165124105</v>
       </c>
       <c r="K26">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>278.8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>1.4172073526193953</v>
+      </c>
+      <c r="C27">
+        <v>1700</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I27">
         <v>69.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2164944886400477</v>
       </c>
       <c r="K27">
         <v>1900</v>
       </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>78.400000000000006</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3683381335635545</v>
       </c>
       <c r="K28">
         <v>1800</v>
       </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I29">
         <v>80.400000000000006</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4032447186034411</v>
       </c>
       <c r="K29">
         <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>12</v>
       </c>

--- a/finger _mapping.xlsx
+++ b/finger _mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476536E1-9D25-4571-9D09-0DC5F3AF16EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C17B7-B537-4958-BCBA-68E6401E1E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" activeTab="1" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>cyl2</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>y = -763.63x + 2768.9</t>
+  </si>
+  <si>
+    <t>Cyl1 Joint Up</t>
+  </si>
+  <si>
+    <t>Cyl1 Joint Down</t>
+  </si>
+  <si>
+    <t>y = -753.43x + 2173.6</t>
+  </si>
+  <si>
+    <t>y = -750.32x + 2845</t>
   </si>
 </sst>
 </file>
@@ -956,6 +968,881 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="338843288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Joint up</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.235987755982989E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22689280275926285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49567350756638956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64577182323790194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88488193076112509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0384709049366261</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2042771838760873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2566370614359172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3997540600994522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-476D-4818-8848-75D3669F21A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="555232824"/>
+        <c:axId val="555229544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="555232824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555229544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555229544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555232824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl1 Joint Down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$O$17:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.10122909661567131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26703537555513263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26703537555513263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44680428851054876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54628805587422535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68067840827778847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85172067497323301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1309733552923258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2514010736799341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4014993893514469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5236724369910499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$P$17:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B3D-41BB-88AE-76E60651FFB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560817360"/>
+        <c:axId val="560813096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560817360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560813096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560813096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560817360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4592,6 +5479,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5944,6 +6911,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10225,14 +12224,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -10261,14 +12260,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -10439,6 +12438,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87C0AEA-3028-4479-8EB4-24103F9E32E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCDA43B-A030-496E-A565-D0CD6E0D5B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11086,15 +13157,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623E588-1CC0-46A8-AA32-60210AEFA578}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11110,8 +13181,11 @@
       <c r="M1">
         <v>1.2915436464758039</v>
       </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>359.5</v>
       </c>
@@ -11142,8 +13216,18 @@
       <c r="K2">
         <v>2200</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>RADIANS(N2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>356.9</v>
       </c>
@@ -11174,8 +13258,18 @@
       <c r="K3">
         <v>2100</v>
       </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="3">RADIANS(N3)</f>
+        <v>5.235987755982989E-2</v>
+      </c>
+      <c r="P3">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>351.1</v>
       </c>
@@ -11206,8 +13300,18 @@
       <c r="K4">
         <v>2000</v>
       </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0.22689280275926285</v>
+      </c>
+      <c r="P4">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>341.3</v>
       </c>
@@ -11238,8 +13342,18 @@
       <c r="K5">
         <v>1900</v>
       </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="P5">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>344.2</v>
       </c>
@@ -11270,8 +13384,18 @@
       <c r="K6">
         <v>1800</v>
       </c>
+      <c r="N6">
+        <v>28.4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.49567350756638956</v>
+      </c>
+      <c r="P6">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>331.7</v>
       </c>
@@ -11302,8 +13426,18 @@
       <c r="K7">
         <v>1700</v>
       </c>
+      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.64577182323790194</v>
+      </c>
+      <c r="P7">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>324.39999999999998</v>
       </c>
@@ -11334,8 +13468,18 @@
       <c r="K8">
         <v>1600</v>
       </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="P8">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>321.39999999999998</v>
       </c>
@@ -11366,8 +13510,18 @@
       <c r="K9">
         <v>1500</v>
       </c>
+      <c r="N9">
+        <v>50.7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.88488193076112509</v>
+      </c>
+      <c r="P9">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>309</v>
       </c>
@@ -11398,8 +13552,18 @@
       <c r="K10">
         <v>1400</v>
       </c>
+      <c r="N10">
+        <v>59.5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>1.0384709049366261</v>
+      </c>
+      <c r="P10">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>303.89999999999998</v>
       </c>
@@ -11423,8 +13587,18 @@
       <c r="K11">
         <v>1300</v>
       </c>
+      <c r="N11">
+        <v>69</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="P11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>297.2</v>
       </c>
@@ -11445,8 +13619,18 @@
       <c r="K12">
         <v>1200</v>
       </c>
+      <c r="N12">
+        <v>72</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="P12">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>289.39999999999998</v>
       </c>
@@ -11467,21 +13651,34 @@
       <c r="K13">
         <v>1130</v>
       </c>
+      <c r="N13">
+        <v>80.2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>1.3997540600994522</v>
+      </c>
+      <c r="P13">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -11504,8 +13701,11 @@
       <c r="M16">
         <v>0.16057029118347813</v>
       </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>352.2</v>
       </c>
@@ -11520,7 +13720,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F28" si="3">RADIANS(E17)</f>
+        <f t="shared" ref="F17:F26" si="4">RADIANS(E17)</f>
         <v>0.17453292519943295</v>
       </c>
       <c r="G17">
@@ -11536,13 +13736,23 @@
       <c r="K17">
         <v>2900</v>
       </c>
+      <c r="N17">
+        <v>275.8</v>
+      </c>
+      <c r="O17">
+        <f>RADIANS(N17-270)</f>
+        <v>0.10122909661567131</v>
+      </c>
+      <c r="P17">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>344.3</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B27" si="4">RADIANS(360-A18)</f>
+        <f t="shared" ref="B18:B27" si="5">RADIANS(360-A18)</f>
         <v>0.27401669256310957</v>
       </c>
       <c r="C18">
@@ -11552,7 +13762,7 @@
         <v>15.9</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2775073510670984</v>
       </c>
       <c r="G18">
@@ -11562,19 +13772,29 @@
         <v>7.9</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J29" si="5">RADIANS(I18)</f>
+        <f t="shared" ref="J18:J29" si="6">RADIANS(I18)</f>
         <v>0.13788101090755203</v>
       </c>
       <c r="K18">
         <v>2800</v>
       </c>
+      <c r="N18">
+        <v>285.3</v>
+      </c>
+      <c r="O18">
+        <f>RADIANS(N18-270)</f>
+        <v>0.26703537555513263</v>
+      </c>
+      <c r="P18">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>339.4</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35953782591083228</v>
       </c>
       <c r="C19">
@@ -11584,7 +13804,7 @@
         <v>21.5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37524578917878088</v>
       </c>
       <c r="G19">
@@ -11594,19 +13814,29 @@
         <v>12</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20943951023931956</v>
       </c>
       <c r="K19">
         <v>2700</v>
       </c>
+      <c r="N19">
+        <v>285.3</v>
+      </c>
+      <c r="O19">
+        <f>RADIANS(N19-270)</f>
+        <v>0.26703537555513263</v>
+      </c>
+      <c r="P19">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>334</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4537856055185257</v>
       </c>
       <c r="C20">
@@ -11616,7 +13846,7 @@
         <v>29.1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50789081233034994</v>
       </c>
       <c r="G20">
@@ -11626,19 +13856,29 @@
         <v>14.2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24783675378319478</v>
       </c>
       <c r="K20">
         <v>2600</v>
       </c>
+      <c r="N20">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="O20">
+        <f>RADIANS(N20-270)</f>
+        <v>0.44680428851054876</v>
+      </c>
+      <c r="P20">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>327.2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57246799465414033</v>
       </c>
       <c r="C21">
@@ -11648,7 +13888,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62831853071795862</v>
       </c>
       <c r="G21">
@@ -11658,19 +13898,29 @@
         <v>24.5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42760566673861072</v>
       </c>
       <c r="K21">
         <v>2500</v>
       </c>
+      <c r="N21">
+        <v>301.3</v>
+      </c>
+      <c r="O21">
+        <f>RADIANS(N21-270)</f>
+        <v>0.54628805587422535</v>
+      </c>
+      <c r="P21">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>320.2</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69464104229374335</v>
       </c>
       <c r="C22">
@@ -11680,7 +13930,7 @@
         <v>43</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75049157835756175</v>
       </c>
       <c r="G22">
@@ -11690,19 +13940,29 @@
         <v>29</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.50614548307835561</v>
       </c>
       <c r="K22">
         <v>2400</v>
       </c>
+      <c r="N22">
+        <v>309</v>
+      </c>
+      <c r="O22">
+        <f>RADIANS(N22-270)</f>
+        <v>0.68067840827778847</v>
+      </c>
+      <c r="P22">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>312</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83775804095727824</v>
       </c>
       <c r="C23">
@@ -11712,7 +13972,7 @@
         <v>55.4</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96691240560485858</v>
       </c>
       <c r="G23">
@@ -11722,19 +13982,29 @@
         <v>33.799999999999997</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.58992128717408332</v>
       </c>
       <c r="K23">
         <v>2300</v>
       </c>
+      <c r="N23">
+        <v>318.8</v>
+      </c>
+      <c r="O23">
+        <f>RADIANS(N23-270)</f>
+        <v>0.85172067497323301</v>
+      </c>
+      <c r="P23">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>304.7</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96516707635286447</v>
       </c>
       <c r="C24">
@@ -11744,7 +14014,7 @@
         <v>57.7</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0070549784007281</v>
       </c>
       <c r="G24">
@@ -11754,19 +14024,29 @@
         <v>49.6</v>
       </c>
       <c r="J24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86568330898918744</v>
       </c>
       <c r="K24">
         <v>2200</v>
       </c>
+      <c r="N24">
+        <v>330</v>
+      </c>
+      <c r="O24">
+        <f>RADIANS(N24-270)</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="P24">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>292.7</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.174606586592184</v>
       </c>
       <c r="C25">
@@ -11776,7 +14056,7 @@
         <v>69.3</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2095131716320704</v>
       </c>
       <c r="G25">
@@ -11786,19 +14066,29 @@
         <v>57.9</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0105456369047168</v>
       </c>
       <c r="K25">
         <v>2100</v>
       </c>
+      <c r="N25">
+        <v>334.8</v>
+      </c>
+      <c r="O25">
+        <f>RADIANS(N25-270)</f>
+        <v>1.1309733552923258</v>
+      </c>
+      <c r="P25">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>285</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="C26">
@@ -11808,7 +14098,7 @@
         <v>81.7</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4259339988793673</v>
       </c>
       <c r="G26">
@@ -11818,19 +14108,29 @@
         <v>63.3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1047934165124105</v>
       </c>
       <c r="K26">
         <v>2000</v>
       </c>
+      <c r="N26">
+        <v>341.7</v>
+      </c>
+      <c r="O26">
+        <f>RADIANS(N26-270)</f>
+        <v>1.2514010736799341</v>
+      </c>
+      <c r="P26">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>278.8</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4172073526193953</v>
       </c>
       <c r="C27">
@@ -11843,26 +14143,46 @@
         <v>69.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2164944886400477</v>
       </c>
       <c r="K27">
         <v>1900</v>
       </c>
+      <c r="N27">
+        <v>350.3</v>
+      </c>
+      <c r="O27">
+        <f>RADIANS(N27-270)</f>
+        <v>1.4014993893514469</v>
+      </c>
+      <c r="P27">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>78.400000000000006</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3683381335635545</v>
       </c>
       <c r="K28">
         <v>1800</v>
       </c>
+      <c r="N28">
+        <v>357.3</v>
+      </c>
+      <c r="O28">
+        <f>RADIANS(N28-270)</f>
+        <v>1.5236724369910499</v>
+      </c>
+      <c r="P28">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
@@ -11870,19 +14190,22 @@
         <v>80.400000000000006</v>
       </c>
       <c r="J29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4032447186034411</v>
       </c>
       <c r="K29">
         <v>1700</v>
       </c>
+      <c r="O29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>12</v>
       </c>

--- a/finger _mapping.xlsx
+++ b/finger _mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C17B7-B537-4958-BCBA-68E6401E1E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E5711F-539B-47B3-A2EB-09FA87CB40E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" activeTab="1" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>cyl2</t>
   </si>
@@ -77,30 +77,6 @@
   <si>
     <t>y = -860.17x + 2137.9</t>
   </si>
-  <si>
-    <t>Cyl2 Joint down</t>
-  </si>
-  <si>
-    <t>Cyl0 Joint Down</t>
-  </si>
-  <si>
-    <t>y = -752.06x + 2707.1</t>
-  </si>
-  <si>
-    <t>y = -763.63x + 2768.9</t>
-  </si>
-  <si>
-    <t>Cyl1 Joint Up</t>
-  </si>
-  <si>
-    <t>Cyl1 Joint Down</t>
-  </si>
-  <si>
-    <t>y = -753.43x + 2173.6</t>
-  </si>
-  <si>
-    <t>y = -750.32x + 2845</t>
-  </si>
 </sst>
 </file>
 
@@ -142,13 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,1303 +519,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="546523520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Cyl0 Joint down</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>psoc17!$B$17:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.13613568165555789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27401669256310957</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35953782591083228</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4537856055185257</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57246799465414033</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69464104229374335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83775804095727824</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96516707635286447</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.174606586592184</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3089969389957472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4172073526193953</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>psoc17!$C$17:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDAA-4B91-A04F-1323EF6325BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="338843288"/>
-        <c:axId val="338841648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="338843288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="338841648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="338841648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="338843288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Cyl1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> Joint up</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>psoc17!$O$2:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.235987755982989E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22689280275926285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3490658503988659</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49567350756638956</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64577182323790194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88488193076112509</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0384709049366261</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2042771838760873</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2566370614359172</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3997540600994522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>psoc17!$P$2:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-476D-4818-8848-75D3669F21A6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="555232824"/>
-        <c:axId val="555229544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="555232824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="555229544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="555229544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="555232824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Cyl1 Joint Down</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>psoc17!$O$17:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.10122909661567131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26703537555513263</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26703537555513263</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44680428851054876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54628805587422535</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68067840827778847</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85172067497323301</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0471975511965976</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1309733552923258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2514010736799341</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4014993893514469</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5236724369910499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>psoc17!$P$17:$P$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B3D-41BB-88AE-76E60651FFB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="560817360"/>
-        <c:axId val="560813096"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="560817360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="560813096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="560813096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="560817360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4977,549 +3653,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Cyl2 joint down</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>psoc17!$F$16:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>9.4247779607693802E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17453292519943295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2775073510670984</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37524578917878088</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50789081233034994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62831853071795862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75049157835756175</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96691240560485858</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0070549784007281</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2095131716320704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4259339988793673</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>psoc17!$C$17:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B08-4124-8D6E-24A5153FA8F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="424961368"/>
-        <c:axId val="424960384"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="424961368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="424960384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="424960384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="424961368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5839,46 +3973,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6395,7 +4489,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6911,7 +5005,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7427,7 +5521,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7943,7 +6037,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8459,7 +6553,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8975,7 +7069,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9491,2071 +7585,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12224,14 +8254,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -12260,14 +8290,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -12361,150 +8391,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B3C62-50E0-4A0E-BA1B-0640E58A0A36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915776CB-9070-4EFF-83F3-C0EE9EC5C39F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87C0AEA-3028-4479-8EB4-24103F9E32E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCDA43B-A030-496E-A565-D0CD6E0D5B41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13157,15 +9043,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623E588-1CC0-46A8-AA32-60210AEFA578}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13181,11 +9067,8 @@
       <c r="M1">
         <v>1.2915436464758039</v>
       </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>359.5</v>
       </c>
@@ -13216,18 +9099,8 @@
       <c r="K2">
         <v>2200</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>RADIANS(N2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>2200</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>356.9</v>
       </c>
@@ -13258,18 +9131,8 @@
       <c r="K3">
         <v>2100</v>
       </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O13" si="3">RADIANS(N3)</f>
-        <v>5.235987755982989E-2</v>
-      </c>
-      <c r="P3">
-        <v>2100</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>351.1</v>
       </c>
@@ -13300,18 +9163,8 @@
       <c r="K4">
         <v>2000</v>
       </c>
-      <c r="N4">
-        <v>13</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
-        <v>0.22689280275926285</v>
-      </c>
-      <c r="P4">
-        <v>2000</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>341.3</v>
       </c>
@@ -13342,18 +9195,8 @@
       <c r="K5">
         <v>1900</v>
       </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="P5">
-        <v>1900</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>344.2</v>
       </c>
@@ -13384,18 +9227,8 @@
       <c r="K6">
         <v>1800</v>
       </c>
-      <c r="N6">
-        <v>28.4</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>0.49567350756638956</v>
-      </c>
-      <c r="P6">
-        <v>1800</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>331.7</v>
       </c>
@@ -13426,18 +9259,8 @@
       <c r="K7">
         <v>1700</v>
       </c>
-      <c r="N7">
-        <v>37</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>0.64577182323790194</v>
-      </c>
-      <c r="P7">
-        <v>1700</v>
-      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>324.39999999999998</v>
       </c>
@@ -13468,18 +9291,8 @@
       <c r="K8">
         <v>1600</v>
       </c>
-      <c r="N8">
-        <v>45</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="P8">
-        <v>1600</v>
-      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>321.39999999999998</v>
       </c>
@@ -13510,18 +9323,8 @@
       <c r="K9">
         <v>1500</v>
       </c>
-      <c r="N9">
-        <v>50.7</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0.88488193076112509</v>
-      </c>
-      <c r="P9">
-        <v>1500</v>
-      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>309</v>
       </c>
@@ -13552,18 +9355,8 @@
       <c r="K10">
         <v>1400</v>
       </c>
-      <c r="N10">
-        <v>59.5</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>1.0384709049366261</v>
-      </c>
-      <c r="P10">
-        <v>1400</v>
-      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>303.89999999999998</v>
       </c>
@@ -13587,18 +9380,8 @@
       <c r="K11">
         <v>1300</v>
       </c>
-      <c r="N11">
-        <v>69</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>1.2042771838760873</v>
-      </c>
-      <c r="P11">
-        <v>1300</v>
-      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>297.2</v>
       </c>
@@ -13619,18 +9402,8 @@
       <c r="K12">
         <v>1200</v>
       </c>
-      <c r="N12">
-        <v>72</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>1.2566370614359172</v>
-      </c>
-      <c r="P12">
-        <v>1200</v>
-      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>289.39999999999998</v>
       </c>
@@ -13651,47 +9424,16 @@
       <c r="K13">
         <v>1130</v>
       </c>
-      <c r="N13">
-        <v>80.2</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>1.3997540600994522</v>
-      </c>
-      <c r="P13">
-        <v>1100</v>
-      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>5.4</v>
-      </c>
-      <c r="F16">
-        <f>RADIANS(E16)</f>
-        <v>9.4247779607693802E-2</v>
-      </c>
-      <c r="G16">
-        <v>2700</v>
-      </c>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>7</v>
       </c>
@@ -13701,31 +9443,8 @@
       <c r="M16">
         <v>0.16057029118347813</v>
       </c>
-      <c r="O16" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>352.2</v>
-      </c>
-      <c r="B17">
-        <f>RADIANS(360-A17)</f>
-        <v>0.13613568165555789</v>
-      </c>
-      <c r="C17">
-        <v>2700</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F26" si="4">RADIANS(E17)</f>
-        <v>0.17453292519943295</v>
-      </c>
-      <c r="G17">
-        <v>2600</v>
-      </c>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I17">
         <v>0</v>
       </c>
@@ -13736,476 +9455,157 @@
       <c r="K17">
         <v>2900</v>
       </c>
-      <c r="N17">
-        <v>275.8</v>
-      </c>
-      <c r="O17">
-        <f>RADIANS(N17-270)</f>
-        <v>0.10122909661567131</v>
-      </c>
-      <c r="P17">
-        <v>2800</v>
-      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>344.3</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:B27" si="5">RADIANS(360-A18)</f>
-        <v>0.27401669256310957</v>
-      </c>
-      <c r="C18">
-        <v>2600</v>
-      </c>
-      <c r="E18">
-        <v>15.9</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>0.2775073510670984</v>
-      </c>
-      <c r="G18">
-        <v>2500</v>
-      </c>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I18">
         <v>7.9</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J29" si="6">RADIANS(I18)</f>
+        <f t="shared" ref="J18:J29" si="3">RADIANS(I18)</f>
         <v>0.13788101090755203</v>
       </c>
       <c r="K18">
         <v>2800</v>
       </c>
-      <c r="N18">
-        <v>285.3</v>
-      </c>
-      <c r="O18">
-        <f>RADIANS(N18-270)</f>
-        <v>0.26703537555513263</v>
-      </c>
-      <c r="P18">
-        <v>2700</v>
-      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>339.4</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="5"/>
-        <v>0.35953782591083228</v>
-      </c>
-      <c r="C19">
-        <v>2500</v>
-      </c>
-      <c r="E19">
-        <v>21.5</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>0.37524578917878088</v>
-      </c>
-      <c r="G19">
-        <v>2400</v>
-      </c>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>12</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.20943951023931956</v>
       </c>
       <c r="K19">
         <v>2700</v>
       </c>
-      <c r="N19">
-        <v>285.3</v>
-      </c>
-      <c r="O19">
-        <f>RADIANS(N19-270)</f>
-        <v>0.26703537555513263</v>
-      </c>
-      <c r="P19">
-        <v>2600</v>
-      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>334</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="5"/>
-        <v>0.4537856055185257</v>
-      </c>
-      <c r="C20">
-        <v>2400</v>
-      </c>
-      <c r="E20">
-        <v>29.1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>0.50789081233034994</v>
-      </c>
-      <c r="G20">
-        <v>2300</v>
-      </c>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>14.2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.24783675378319478</v>
       </c>
       <c r="K20">
         <v>2600</v>
       </c>
-      <c r="N20">
-        <v>295.60000000000002</v>
-      </c>
-      <c r="O20">
-        <f>RADIANS(N20-270)</f>
-        <v>0.44680428851054876</v>
-      </c>
-      <c r="P20">
-        <v>2500</v>
-      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>327.2</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="5"/>
-        <v>0.57246799465414033</v>
-      </c>
-      <c r="C21">
-        <v>2300</v>
-      </c>
-      <c r="E21">
-        <v>36</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
-        <v>0.62831853071795862</v>
-      </c>
-      <c r="G21">
-        <v>2200</v>
-      </c>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>24.5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.42760566673861072</v>
       </c>
       <c r="K21">
         <v>2500</v>
       </c>
-      <c r="N21">
-        <v>301.3</v>
-      </c>
-      <c r="O21">
-        <f>RADIANS(N21-270)</f>
-        <v>0.54628805587422535</v>
-      </c>
-      <c r="P21">
-        <v>2400</v>
-      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>320.2</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="5"/>
-        <v>0.69464104229374335</v>
-      </c>
-      <c r="C22">
-        <v>2200</v>
-      </c>
-      <c r="E22">
-        <v>43</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
-        <v>0.75049157835756175</v>
-      </c>
-      <c r="G22">
-        <v>2100</v>
-      </c>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>29</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.50614548307835561</v>
       </c>
       <c r="K22">
         <v>2400</v>
       </c>
-      <c r="N22">
-        <v>309</v>
-      </c>
-      <c r="O22">
-        <f>RADIANS(N22-270)</f>
-        <v>0.68067840827778847</v>
-      </c>
-      <c r="P22">
-        <v>2300</v>
-      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>312</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="5"/>
-        <v>0.83775804095727824</v>
-      </c>
-      <c r="C23">
-        <v>2100</v>
-      </c>
-      <c r="E23">
-        <v>55.4</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="4"/>
-        <v>0.96691240560485858</v>
-      </c>
-      <c r="G23">
-        <v>2000</v>
-      </c>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>33.799999999999997</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.58992128717408332</v>
       </c>
       <c r="K23">
         <v>2300</v>
       </c>
-      <c r="N23">
-        <v>318.8</v>
-      </c>
-      <c r="O23">
-        <f>RADIANS(N23-270)</f>
-        <v>0.85172067497323301</v>
-      </c>
-      <c r="P23">
-        <v>2200</v>
-      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>304.7</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="5"/>
-        <v>0.96516707635286447</v>
-      </c>
-      <c r="C24">
-        <v>2000</v>
-      </c>
-      <c r="E24">
-        <v>57.7</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
-        <v>1.0070549784007281</v>
-      </c>
-      <c r="G24">
-        <v>1900</v>
-      </c>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>49.6</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.86568330898918744</v>
       </c>
       <c r="K24">
         <v>2200</v>
       </c>
-      <c r="N24">
-        <v>330</v>
-      </c>
-      <c r="O24">
-        <f>RADIANS(N24-270)</f>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="P24">
-        <v>2100</v>
-      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>292.7</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="5"/>
-        <v>1.174606586592184</v>
-      </c>
-      <c r="C25">
-        <v>1900</v>
-      </c>
-      <c r="E25">
-        <v>69.3</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="4"/>
-        <v>1.2095131716320704</v>
-      </c>
-      <c r="G25">
-        <v>1800</v>
-      </c>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>57.9</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.0105456369047168</v>
       </c>
       <c r="K25">
         <v>2100</v>
       </c>
-      <c r="N25">
-        <v>334.8</v>
-      </c>
-      <c r="O25">
-        <f>RADIANS(N25-270)</f>
-        <v>1.1309733552923258</v>
-      </c>
-      <c r="P25">
-        <v>2000</v>
-      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>285</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="5"/>
-        <v>1.3089969389957472</v>
-      </c>
-      <c r="C26">
-        <v>1800</v>
-      </c>
-      <c r="E26">
-        <v>81.7</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="4"/>
-        <v>1.4259339988793673</v>
-      </c>
-      <c r="G26">
-        <v>1700</v>
-      </c>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>63.3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.1047934165124105</v>
       </c>
       <c r="K26">
         <v>2000</v>
       </c>
-      <c r="N26">
-        <v>341.7</v>
-      </c>
-      <c r="O26">
-        <f>RADIANS(N26-270)</f>
-        <v>1.2514010736799341</v>
-      </c>
-      <c r="P26">
-        <v>1900</v>
-      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>278.8</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="5"/>
-        <v>1.4172073526193953</v>
-      </c>
-      <c r="C27">
-        <v>1700</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>69.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2164944886400477</v>
       </c>
       <c r="K27">
         <v>1900</v>
       </c>
-      <c r="N27">
-        <v>350.3</v>
-      </c>
-      <c r="O27">
-        <f>RADIANS(N27-270)</f>
-        <v>1.4014993893514469</v>
-      </c>
-      <c r="P27">
-        <v>1800</v>
-      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>78.400000000000006</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3683381335635545</v>
       </c>
       <c r="K28">
         <v>1800</v>
       </c>
-      <c r="N28">
-        <v>357.3</v>
-      </c>
-      <c r="O28">
-        <f>RADIANS(N28-270)</f>
-        <v>1.5236724369910499</v>
-      </c>
-      <c r="P28">
-        <v>1700</v>
-      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>80.400000000000006</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4032447186034411</v>
       </c>
       <c r="K29">
         <v>1700</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>12</v>
       </c>

--- a/finger _mapping.xlsx
+++ b/finger _mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E5711F-539B-47B3-A2EB-09FA87CB40E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C17B7-B537-4958-BCBA-68E6401E1E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" activeTab="1" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>cyl2</t>
   </si>
@@ -77,6 +77,30 @@
   <si>
     <t>y = -860.17x + 2137.9</t>
   </si>
+  <si>
+    <t>Cyl2 Joint down</t>
+  </si>
+  <si>
+    <t>Cyl0 Joint Down</t>
+  </si>
+  <si>
+    <t>y = -752.06x + 2707.1</t>
+  </si>
+  <si>
+    <t>y = -763.63x + 2768.9</t>
+  </si>
+  <si>
+    <t>Cyl1 Joint Up</t>
+  </si>
+  <si>
+    <t>Cyl1 Joint Down</t>
+  </si>
+  <si>
+    <t>y = -753.43x + 2173.6</t>
+  </si>
+  <si>
+    <t>y = -750.32x + 2845</t>
+  </si>
 </sst>
 </file>
 
@@ -118,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,6 +546,1303 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="546523520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl0 Joint down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$B$17:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.13613568165555789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27401669256310957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35953782591083228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4537856055185257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57246799465414033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69464104229374335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83775804095727824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96516707635286447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.174606586592184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3089969389957472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4172073526193953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDAA-4B91-A04F-1323EF6325BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338843288"/>
+        <c:axId val="338841648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338843288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338841648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338841648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338843288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Joint up</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.235987755982989E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22689280275926285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3490658503988659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49567350756638956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64577182323790194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78539816339744828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88488193076112509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0384709049366261</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2042771838760873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2566370614359172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3997540600994522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$P$2:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-476D-4818-8848-75D3669F21A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="555232824"/>
+        <c:axId val="555229544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="555232824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555229544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555229544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555232824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl1 Joint Down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$O$17:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.10122909661567131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26703537555513263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26703537555513263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44680428851054876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54628805587422535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68067840827778847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85172067497323301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0471975511965976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1309733552923258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2514010736799341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4014993893514469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5236724369910499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$P$17:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B3D-41BB-88AE-76E60651FFB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560817360"/>
+        <c:axId val="560813096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560817360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560813096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560813096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560817360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3653,7 +4977,549 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cyl2 joint down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>psoc17!$F$16:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.4247779607693802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17453292519943295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2775073510670984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37524578917878088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50789081233034994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75049157835756175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96691240560485858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0070549784007281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2095131716320704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4259339988793673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>psoc17!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B08-4124-8D6E-24A5153FA8F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424961368"/>
+        <c:axId val="424960384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424961368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424960384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424960384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424961368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3973,6 +5839,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4489,7 +6395,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5005,7 +6911,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5521,7 +7427,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6037,7 +7943,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6553,7 +8459,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7069,7 +8975,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7585,7 +9491,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8254,14 +12224,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -8290,14 +12260,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
@@ -8391,6 +12361,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B3C62-50E0-4A0E-BA1B-0640E58A0A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915776CB-9070-4EFF-83F3-C0EE9EC5C39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87C0AEA-3028-4479-8EB4-24103F9E32E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCDA43B-A030-496E-A565-D0CD6E0D5B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9043,15 +13157,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623E588-1CC0-46A8-AA32-60210AEFA578}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9067,8 +13181,11 @@
       <c r="M1">
         <v>1.2915436464758039</v>
       </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>359.5</v>
       </c>
@@ -9099,8 +13216,18 @@
       <c r="K2">
         <v>2200</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>RADIANS(N2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>356.9</v>
       </c>
@@ -9131,8 +13258,18 @@
       <c r="K3">
         <v>2100</v>
       </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O13" si="3">RADIANS(N3)</f>
+        <v>5.235987755982989E-2</v>
+      </c>
+      <c r="P3">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>351.1</v>
       </c>
@@ -9163,8 +13300,18 @@
       <c r="K4">
         <v>2000</v>
       </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0.22689280275926285</v>
+      </c>
+      <c r="P4">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>341.3</v>
       </c>
@@ -9195,8 +13342,18 @@
       <c r="K5">
         <v>1900</v>
       </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="P5">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>344.2</v>
       </c>
@@ -9227,8 +13384,18 @@
       <c r="K6">
         <v>1800</v>
       </c>
+      <c r="N6">
+        <v>28.4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.49567350756638956</v>
+      </c>
+      <c r="P6">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>331.7</v>
       </c>
@@ -9259,8 +13426,18 @@
       <c r="K7">
         <v>1700</v>
       </c>
+      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.64577182323790194</v>
+      </c>
+      <c r="P7">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>324.39999999999998</v>
       </c>
@@ -9291,8 +13468,18 @@
       <c r="K8">
         <v>1600</v>
       </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="P8">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>321.39999999999998</v>
       </c>
@@ -9323,8 +13510,18 @@
       <c r="K9">
         <v>1500</v>
       </c>
+      <c r="N9">
+        <v>50.7</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.88488193076112509</v>
+      </c>
+      <c r="P9">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>309</v>
       </c>
@@ -9355,8 +13552,18 @@
       <c r="K10">
         <v>1400</v>
       </c>
+      <c r="N10">
+        <v>59.5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>1.0384709049366261</v>
+      </c>
+      <c r="P10">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>303.89999999999998</v>
       </c>
@@ -9380,8 +13587,18 @@
       <c r="K11">
         <v>1300</v>
       </c>
+      <c r="N11">
+        <v>69</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="P11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>297.2</v>
       </c>
@@ -9402,8 +13619,18 @@
       <c r="K12">
         <v>1200</v>
       </c>
+      <c r="N12">
+        <v>72</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="P12">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>289.39999999999998</v>
       </c>
@@ -9424,16 +13651,47 @@
       <c r="K13">
         <v>1130</v>
       </c>
+      <c r="N13">
+        <v>80.2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>1.3997540600994522</v>
+      </c>
+      <c r="P13">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>5.4</v>
+      </c>
+      <c r="F16">
+        <f>RADIANS(E16)</f>
+        <v>9.4247779607693802E-2</v>
+      </c>
+      <c r="G16">
+        <v>2700</v>
+      </c>
       <c r="J16" t="s">
         <v>7</v>
       </c>
@@ -9443,8 +13701,31 @@
       <c r="M16">
         <v>0.16057029118347813</v>
       </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>352.2</v>
+      </c>
+      <c r="B17">
+        <f>RADIANS(360-A17)</f>
+        <v>0.13613568165555789</v>
+      </c>
+      <c r="C17">
+        <v>2700</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F26" si="4">RADIANS(E17)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="G17">
+        <v>2600</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -9455,157 +13736,476 @@
       <c r="K17">
         <v>2900</v>
       </c>
+      <c r="N17">
+        <v>275.8</v>
+      </c>
+      <c r="O17">
+        <f>RADIANS(N17-270)</f>
+        <v>0.10122909661567131</v>
+      </c>
+      <c r="P17">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>344.3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B27" si="5">RADIANS(360-A18)</f>
+        <v>0.27401669256310957</v>
+      </c>
+      <c r="C18">
+        <v>2600</v>
+      </c>
+      <c r="E18">
+        <v>15.9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>0.2775073510670984</v>
+      </c>
+      <c r="G18">
+        <v>2500</v>
+      </c>
       <c r="I18">
         <v>7.9</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J29" si="3">RADIANS(I18)</f>
+        <f t="shared" ref="J18:J29" si="6">RADIANS(I18)</f>
         <v>0.13788101090755203</v>
       </c>
       <c r="K18">
         <v>2800</v>
       </c>
+      <c r="N18">
+        <v>285.3</v>
+      </c>
+      <c r="O18">
+        <f>RADIANS(N18-270)</f>
+        <v>0.26703537555513263</v>
+      </c>
+      <c r="P18">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>339.4</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>0.35953782591083228</v>
+      </c>
+      <c r="C19">
+        <v>2500</v>
+      </c>
+      <c r="E19">
+        <v>21.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>0.37524578917878088</v>
+      </c>
+      <c r="G19">
+        <v>2400</v>
+      </c>
       <c r="I19">
         <v>12</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.20943951023931956</v>
       </c>
       <c r="K19">
         <v>2700</v>
       </c>
+      <c r="N19">
+        <v>285.3</v>
+      </c>
+      <c r="O19">
+        <f>RADIANS(N19-270)</f>
+        <v>0.26703537555513263</v>
+      </c>
+      <c r="P19">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>334</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>0.4537856055185257</v>
+      </c>
+      <c r="C20">
+        <v>2400</v>
+      </c>
+      <c r="E20">
+        <v>29.1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.50789081233034994</v>
+      </c>
+      <c r="G20">
+        <v>2300</v>
+      </c>
       <c r="I20">
         <v>14.2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.24783675378319478</v>
       </c>
       <c r="K20">
         <v>2600</v>
       </c>
+      <c r="N20">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="O20">
+        <f>RADIANS(N20-270)</f>
+        <v>0.44680428851054876</v>
+      </c>
+      <c r="P20">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>327.2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>0.57246799465414033</v>
+      </c>
+      <c r="C21">
+        <v>2300</v>
+      </c>
+      <c r="E21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="G21">
+        <v>2200</v>
+      </c>
       <c r="I21">
         <v>24.5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.42760566673861072</v>
       </c>
       <c r="K21">
         <v>2500</v>
       </c>
+      <c r="N21">
+        <v>301.3</v>
+      </c>
+      <c r="O21">
+        <f>RADIANS(N21-270)</f>
+        <v>0.54628805587422535</v>
+      </c>
+      <c r="P21">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>320.2</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>0.69464104229374335</v>
+      </c>
+      <c r="C22">
+        <v>2200</v>
+      </c>
+      <c r="E22">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0.75049157835756175</v>
+      </c>
+      <c r="G22">
+        <v>2100</v>
+      </c>
       <c r="I22">
         <v>29</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.50614548307835561</v>
       </c>
       <c r="K22">
         <v>2400</v>
       </c>
+      <c r="N22">
+        <v>309</v>
+      </c>
+      <c r="O22">
+        <f>RADIANS(N22-270)</f>
+        <v>0.68067840827778847</v>
+      </c>
+      <c r="P22">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>312</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>0.83775804095727824</v>
+      </c>
+      <c r="C23">
+        <v>2100</v>
+      </c>
+      <c r="E23">
+        <v>55.4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0.96691240560485858</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
       <c r="I23">
         <v>33.799999999999997</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58992128717408332</v>
       </c>
       <c r="K23">
         <v>2300</v>
       </c>
+      <c r="N23">
+        <v>318.8</v>
+      </c>
+      <c r="O23">
+        <f>RADIANS(N23-270)</f>
+        <v>0.85172067497323301</v>
+      </c>
+      <c r="P23">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>304.7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>0.96516707635286447</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>57.7</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>1.0070549784007281</v>
+      </c>
+      <c r="G24">
+        <v>1900</v>
+      </c>
       <c r="I24">
         <v>49.6</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.86568330898918744</v>
       </c>
       <c r="K24">
         <v>2200</v>
       </c>
+      <c r="N24">
+        <v>330</v>
+      </c>
+      <c r="O24">
+        <f>RADIANS(N24-270)</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="P24">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>292.7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>1.174606586592184</v>
+      </c>
+      <c r="C25">
+        <v>1900</v>
+      </c>
+      <c r="E25">
+        <v>69.3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>1.2095131716320704</v>
+      </c>
+      <c r="G25">
+        <v>1800</v>
+      </c>
       <c r="I25">
         <v>57.9</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0105456369047168</v>
       </c>
       <c r="K25">
         <v>2100</v>
       </c>
+      <c r="N25">
+        <v>334.8</v>
+      </c>
+      <c r="O25">
+        <f>RADIANS(N25-270)</f>
+        <v>1.1309733552923258</v>
+      </c>
+      <c r="P25">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>285</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C26">
+        <v>1800</v>
+      </c>
+      <c r="E26">
+        <v>81.7</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>1.4259339988793673</v>
+      </c>
+      <c r="G26">
+        <v>1700</v>
+      </c>
       <c r="I26">
         <v>63.3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1047934165124105</v>
       </c>
       <c r="K26">
         <v>2000</v>
       </c>
+      <c r="N26">
+        <v>341.7</v>
+      </c>
+      <c r="O26">
+        <f>RADIANS(N26-270)</f>
+        <v>1.2514010736799341</v>
+      </c>
+      <c r="P26">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>278.8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="5"/>
+        <v>1.4172073526193953</v>
+      </c>
+      <c r="C27">
+        <v>1700</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I27">
         <v>69.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2164944886400477</v>
       </c>
       <c r="K27">
         <v>1900</v>
       </c>
+      <c r="N27">
+        <v>350.3</v>
+      </c>
+      <c r="O27">
+        <f>RADIANS(N27-270)</f>
+        <v>1.4014993893514469</v>
+      </c>
+      <c r="P27">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>78.400000000000006</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3683381335635545</v>
       </c>
       <c r="K28">
         <v>1800</v>
       </c>
+      <c r="N28">
+        <v>357.3</v>
+      </c>
+      <c r="O28">
+        <f>RADIANS(N28-270)</f>
+        <v>1.5236724369910499</v>
+      </c>
+      <c r="P28">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I29">
         <v>80.400000000000006</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4032447186034411</v>
       </c>
       <c r="K29">
         <v>1700</v>
       </c>
+      <c r="O29" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>12</v>
       </c>

--- a/finger _mapping.xlsx
+++ b/finger _mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arobo\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1C17B7-B537-4958-BCBA-68E6401E1E22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68753F-6635-40D9-8338-8762805EE7C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" activeTab="1" xr2:uid="{EB79558A-2D87-4A44-BECA-4F813F7A297F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>cyl2</t>
   </si>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>y = -750.32x + 2845</t>
+  </si>
+  <si>
+    <t>1 Degree in Radians</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Formulas</t>
+  </si>
+  <si>
+    <t>Pot. Diff over 1 degree</t>
+  </si>
+  <si>
+    <t>y = -754.84x + 2152.7</t>
+  </si>
+  <si>
+    <t>y = -742.33x + 2064.5</t>
+  </si>
+  <si>
+    <t>y = -753.25x + 2051.8</t>
+  </si>
+  <si>
+    <t>y = -829.18x + 2207.3</t>
   </si>
 </sst>
 </file>
@@ -12075,16 +12099,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12111,15 +12135,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12184,15 +12208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12812,7 +12836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE6C97-79D0-4B86-A519-91789606F757}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -13157,10 +13181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623E588-1CC0-46A8-AA32-60210AEFA578}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13740,7 +13764,7 @@
         <v>275.8</v>
       </c>
       <c r="O17">
-        <f>RADIANS(N17-270)</f>
+        <f t="shared" ref="O17:O28" si="5">RADIANS(N17-270)</f>
         <v>0.10122909661567131</v>
       </c>
       <c r="P17">
@@ -13752,7 +13776,7 @@
         <v>344.3</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B27" si="5">RADIANS(360-A18)</f>
+        <f t="shared" ref="B18:B27" si="6">RADIANS(360-A18)</f>
         <v>0.27401669256310957</v>
       </c>
       <c r="C18">
@@ -13772,7 +13796,7 @@
         <v>7.9</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J29" si="6">RADIANS(I18)</f>
+        <f t="shared" ref="J18:J29" si="7">RADIANS(I18)</f>
         <v>0.13788101090755203</v>
       </c>
       <c r="K18">
@@ -13782,7 +13806,7 @@
         <v>285.3</v>
       </c>
       <c r="O18">
-        <f>RADIANS(N18-270)</f>
+        <f t="shared" si="5"/>
         <v>0.26703537555513263</v>
       </c>
       <c r="P18">
@@ -13794,7 +13818,7 @@
         <v>339.4</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35953782591083228</v>
       </c>
       <c r="C19">
@@ -13814,7 +13838,7 @@
         <v>12</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20943951023931956</v>
       </c>
       <c r="K19">
@@ -13824,7 +13848,7 @@
         <v>285.3</v>
       </c>
       <c r="O19">
-        <f>RADIANS(N19-270)</f>
+        <f t="shared" si="5"/>
         <v>0.26703537555513263</v>
       </c>
       <c r="P19">
@@ -13836,7 +13860,7 @@
         <v>334</v>
       </c>
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4537856055185257</v>
       </c>
       <c r="C20">
@@ -13856,7 +13880,7 @@
         <v>14.2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24783675378319478</v>
       </c>
       <c r="K20">
@@ -13866,7 +13890,7 @@
         <v>295.60000000000002</v>
       </c>
       <c r="O20">
-        <f>RADIANS(N20-270)</f>
+        <f t="shared" si="5"/>
         <v>0.44680428851054876</v>
       </c>
       <c r="P20">
@@ -13878,7 +13902,7 @@
         <v>327.2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57246799465414033</v>
       </c>
       <c r="C21">
@@ -13898,7 +13922,7 @@
         <v>24.5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.42760566673861072</v>
       </c>
       <c r="K21">
@@ -13908,7 +13932,7 @@
         <v>301.3</v>
       </c>
       <c r="O21">
-        <f>RADIANS(N21-270)</f>
+        <f t="shared" si="5"/>
         <v>0.54628805587422535</v>
       </c>
       <c r="P21">
@@ -13920,7 +13944,7 @@
         <v>320.2</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69464104229374335</v>
       </c>
       <c r="C22">
@@ -13940,7 +13964,7 @@
         <v>29</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50614548307835561</v>
       </c>
       <c r="K22">
@@ -13950,7 +13974,7 @@
         <v>309</v>
       </c>
       <c r="O22">
-        <f>RADIANS(N22-270)</f>
+        <f t="shared" si="5"/>
         <v>0.68067840827778847</v>
       </c>
       <c r="P22">
@@ -13962,7 +13986,7 @@
         <v>312</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83775804095727824</v>
       </c>
       <c r="C23">
@@ -13982,7 +14006,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58992128717408332</v>
       </c>
       <c r="K23">
@@ -13992,7 +14016,7 @@
         <v>318.8</v>
       </c>
       <c r="O23">
-        <f>RADIANS(N23-270)</f>
+        <f t="shared" si="5"/>
         <v>0.85172067497323301</v>
       </c>
       <c r="P23">
@@ -14004,7 +14028,7 @@
         <v>304.7</v>
       </c>
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96516707635286447</v>
       </c>
       <c r="C24">
@@ -14024,7 +14048,7 @@
         <v>49.6</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86568330898918744</v>
       </c>
       <c r="K24">
@@ -14034,7 +14058,7 @@
         <v>330</v>
       </c>
       <c r="O24">
-        <f>RADIANS(N24-270)</f>
+        <f t="shared" si="5"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="P24">
@@ -14046,7 +14070,7 @@
         <v>292.7</v>
       </c>
       <c r="B25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.174606586592184</v>
       </c>
       <c r="C25">
@@ -14066,7 +14090,7 @@
         <v>57.9</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0105456369047168</v>
       </c>
       <c r="K25">
@@ -14076,7 +14100,7 @@
         <v>334.8</v>
       </c>
       <c r="O25">
-        <f>RADIANS(N25-270)</f>
+        <f t="shared" si="5"/>
         <v>1.1309733552923258</v>
       </c>
       <c r="P25">
@@ -14088,7 +14112,7 @@
         <v>285</v>
       </c>
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="C26">
@@ -14108,7 +14132,7 @@
         <v>63.3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1047934165124105</v>
       </c>
       <c r="K26">
@@ -14118,7 +14142,7 @@
         <v>341.7</v>
       </c>
       <c r="O26">
-        <f>RADIANS(N26-270)</f>
+        <f t="shared" si="5"/>
         <v>1.2514010736799341</v>
       </c>
       <c r="P26">
@@ -14130,7 +14154,7 @@
         <v>278.8</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4172073526193953</v>
       </c>
       <c r="C27">
@@ -14143,7 +14167,7 @@
         <v>69.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2164944886400477</v>
       </c>
       <c r="K27">
@@ -14153,7 +14177,7 @@
         <v>350.3</v>
       </c>
       <c r="O27">
-        <f>RADIANS(N27-270)</f>
+        <f t="shared" si="5"/>
         <v>1.4014993893514469</v>
       </c>
       <c r="P27">
@@ -14165,7 +14189,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3683381335635545</v>
       </c>
       <c r="K28">
@@ -14175,7 +14199,7 @@
         <v>357.3</v>
       </c>
       <c r="O28">
-        <f>RADIANS(N28-270)</f>
+        <f t="shared" si="5"/>
         <v>1.5236724369910499</v>
       </c>
       <c r="P28">
@@ -14190,7 +14214,7 @@
         <v>80.400000000000006</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4032447186034411</v>
       </c>
       <c r="K29">
@@ -14206,12 +14230,217 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
       <c r="J32" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>RADIANS(1)</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f xml:space="preserve"> -763.63*B33</f>
+        <v>-13.327857767004298</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" ref="B34:B44" si="8">RADIANS(1)</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <f>-860.17*B34</f>
+        <v>-15.012798626879624</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <f>-703.44*B35</f>
+        <v>-12.277344090228913</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <f>-752.06*B36</f>
+        <v>-13.125923172548553</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <f>-705.92*B37</f>
+        <v>-12.32062825567837</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <f>-790.62*B38</f>
+        <v>-13.798922132117568</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <f>-750.32*B39</f>
+        <v>-13.095554443563854</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <f>-753.43*B40</f>
+        <v>-13.149834183300877</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <f>-754.84*B41</f>
+        <v>-13.174443325753998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <f>-742.33*B42</f>
+        <v>-12.956102636329508</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <f>-753.25*B43</f>
+        <v>-13.146692590647287</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="8"/>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <f>-829.18*B44</f>
+        <v>-14.47192109168658</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(D33:D44)</f>
+        <v>-13.321501859644952</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A00DFC0A-46A5-4E2F-8841-7136257DCDF3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A00DFC0A-46A5-4E2F-8841-7136257DCDF3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C45</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>